--- a/WorkBot/refactor/data/orders/DUTCH VALLEY FOOD DIST/CompletedOrders/DUTCH VALLEY FOOD DIST_Bakery_2025-08-12.xlsx
+++ b/WorkBot/refactor/data/orders/DUTCH VALLEY FOOD DIST/CompletedOrders/DUTCH VALLEY FOOD DIST_Bakery_2025-08-12.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,357 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>462130</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Joe Tea - Peach</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>462225</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Joe Tea - Mango Lemonade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>462120</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joe Tea - Lemon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>462180</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joe Tea - Kiwi Strawberry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>462115</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joe Tea - Half &amp; Half</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>112.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>462110</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joe Tea - Ginseng Green</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>462105</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Joe Tea - Classic Lemonade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>112.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>462100</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Joe Tea - Black Unsweetened</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>462175</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joe Tea - Black Cherry</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>269.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>456501</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bragg - Honey &amp; Green Tea</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>456505</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bragg - Ginger Lemon Honey</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>053365</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DV - Yogurt Mini Pretzel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>456090</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Employee Water</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
